--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="CSM_Login" sheetId="1" r:id="rId3"/>
-    <sheet name="CSMParam_login" sheetId="2" r:id="rId4"/>
-    <sheet name="SadsLogin" sheetId="3" r:id="rId5"/>
-    <sheet name="CSM_ClientProcessingStatement" sheetId="4" r:id="rId6"/>
-    <sheet name="CSM_LostAndFoundManagement" sheetId="5" r:id="rId7"/>
-    <sheet name="AmendChequeCardStatusTestData" sheetId="6" r:id="rId8"/>
-    <sheet name="CSM_Transaction" sheetId="7" r:id="rId9"/>
-    <sheet name="CSM_ChequeBookrequest" sheetId="8" r:id="rId10"/>
-    <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId11"/>
+    <sheet name="CSM_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="CSMParam_login" sheetId="2" r:id="rId2"/>
+    <sheet name="SadsLogin" sheetId="3" r:id="rId3"/>
+    <sheet name="CSM_ClientProcessingStatement" sheetId="4" r:id="rId4"/>
+    <sheet name="CSM_LostAndFoundManagement" sheetId="5" r:id="rId5"/>
+    <sheet name="AmendChequeCardStatusTestData" sheetId="6" r:id="rId6"/>
+    <sheet name="CSM_Transaction" sheetId="7" r:id="rId7"/>
+    <sheet name="CSM_ChequeBookrequest" sheetId="8" r:id="rId8"/>
+    <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
   <si>
     <t>Stage</t>
   </si>
@@ -295,9 +294,6 @@
     <t>Credit Serial Number</t>
   </si>
   <si>
-    <t>Input Currency Code</t>
-  </si>
-  <si>
     <t>Debit Branch Code</t>
   </si>
   <si>
@@ -343,138 +339,39 @@
     <t>Update DataSetID</t>
   </si>
   <si>
-    <t>TC_CW_001</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_001</t>
   </si>
   <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 </t>
-  </si>
-  <si>
-    <t>01/01/2017</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
-  </si>
-  <si>
-    <t>TC_CW_003</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_003</t>
   </si>
   <si>
-    <t>7194</t>
-  </si>
-  <si>
-    <t>TC_CW_004</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_004</t>
   </si>
   <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>034</t>
-  </si>
-  <si>
-    <t>7195</t>
-  </si>
-  <si>
-    <t>TC_CW_005</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_005</t>
   </si>
   <si>
-    <t>7192</t>
-  </si>
-  <si>
-    <t>TC_CW_006</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_006</t>
   </si>
   <si>
-    <t>TC_CW_007</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_007</t>
   </si>
   <si>
-    <t>7193</t>
-  </si>
-  <si>
-    <t>TC_CW_019</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_019</t>
   </si>
   <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>9601</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Suspend</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>01/01/2018</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_020</t>
   </si>
   <si>
-    <t>TC_CW_020</t>
-  </si>
-  <si>
-    <t>TC_CW_021</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_021</t>
   </si>
   <si>
-    <t>TC_CW_022</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_022</t>
   </si>
   <si>
-    <t>Close SO</t>
-  </si>
-  <si>
-    <t>TC_CW_023</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_023</t>
   </si>
   <si>
-    <t>7250</t>
-  </si>
-  <si>
-    <t>CANCEL TRX</t>
-  </si>
-  <si>
     <t>Number Of ChequeBook</t>
   </si>
   <si>
@@ -596,18 +493,49 @@
   </si>
   <si>
     <t>DS01_TC_CW_026</t>
+  </si>
+  <si>
+    <t>TRS_061</t>
+  </si>
+  <si>
+    <t>TRS_061_D1</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>96138</t>
+  </si>
+  <si>
+    <t>993563</t>
+  </si>
+  <si>
+    <t>Type Code_D2</t>
+  </si>
+  <si>
+    <t>TRS_062</t>
+  </si>
+  <si>
+    <t>TRS_062_D1</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>400402</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="$#,##0;[RED]-$#,##0"/>
-    <numFmt numFmtId="178" formatCode="$#,##0.00;[RED]-$#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -651,29 +579,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="16"/>
@@ -684,7 +589,7 @@
     <font>
       <b/>
       <i/>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -759,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -780,446 +685,85 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="7">
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="6"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="24"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
-    <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="26"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="27"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="28"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="29"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="30"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="31"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="32"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="33"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Built-in_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_Normal" xfId="34"/>
-    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="35"/>
-    <cellStyle name="Heading_20_1" xfId="36"/>
-    <cellStyle name="Heading1_20_1" xfId="37"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="38"/>
-    <cellStyle name="Heading1_5f_5f_5f_20_5f_5f_5f_1" xfId="39"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="40"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="41"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="42"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="43"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="44"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="45"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="46"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="47"/>
-    <cellStyle name="Heading1_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="48"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="49"/>
-    <cellStyle name="Heading_5f_5f_5f_20_5f_5f_5f_1" xfId="50"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="51"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="52"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="53"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="54"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="55"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="56"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="57"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="58"/>
-    <cellStyle name="Heading_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="59"/>
-    <cellStyle name="Result_20_1" xfId="60"/>
-    <cellStyle name="Result2_20_1" xfId="61"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="62"/>
-    <cellStyle name="Result2_5f_5f_5f_20_5f_5f_5f_1" xfId="63"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="64"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="65"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="66"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="67"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="68"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="69"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="70"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="71"/>
-    <cellStyle name="Result2_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="72"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="73"/>
-    <cellStyle name="Result_5f_5f_5f_20_5f_5f_5f_1" xfId="74"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_1" xfId="75"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="76"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="77"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="78"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="79"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="80"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="81"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="82"/>
-    <cellStyle name="Result_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_20_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_1" xfId="83"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1274,7 +818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1326,7 +870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1520,31 +1064,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797f08a-aa79-485e-905a-eba6b1bb837e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" style="3" customWidth="1"/>
-    <col min="2" max="2" width="49.857142857142854" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.142857142857146" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="33" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.857142857142854" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="17.285714285714285" style="3"/>
+    <col min="5" max="5" width="38.85546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.05">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1596,30 +1140,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26c77927-c510-446e-82af-746a3a06a3d9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41.42857142857143" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.57142857142857" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.285714285714285" style="3" customWidth="1"/>
-    <col min="5" max="5" width="63.142857142857146" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="17.285714285714285" style="3"/>
+    <col min="2" max="2" width="41.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="63.140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.05">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1636,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.05">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1654,28 +1198,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c6581da7-3574-4633-bc00-219932715eb4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.285714285714285" style="3"/>
-    <col min="2" max="2" width="60.857142857142854" style="3" customWidth="1"/>
-    <col min="3" max="3" width="53.857142857142854" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="17.285714285714285" style="3"/>
+    <col min="1" max="1" width="17.28515625" style="3"/>
+    <col min="2" max="2" width="60.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.05">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.05">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1698,33 +1240,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a003394e-41b2-4a22-aa00-edbd6ad937ce}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.142857142857146" style="3" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="69" style="3" customWidth="1"/>
-    <col min="3" max="3" width="53.42857142857143" style="3" customWidth="1"/>
-    <col min="4" max="4" width="47.285714285714285" style="3" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="41" style="3" customWidth="1"/>
-    <col min="6" max="6" width="45.285714285714285" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" style="3" customWidth="1"/>
     <col min="7" max="8" width="41" style="3" customWidth="1"/>
-    <col min="9" max="9" width="38.42857142857143" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="17.285714285714285" style="3"/>
+    <col min="9" max="9" width="38.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.05">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1753,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.05">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1782,7 +1322,7 @@
         <v>993503</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.05">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1811,7 +1351,7 @@
         <v>993503</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.05">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1840,7 +1380,7 @@
         <v>993503</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.05">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
@@ -1870,33 +1410,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331fb69c-46eb-473a-aea7-e7055f9553a2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.714285714285715" style="3" customWidth="1"/>
+    <col min="1" max="1" width="63.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="89" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.285714285714285" style="3" customWidth="1"/>
-    <col min="4" max="4" width="62.57142857142857" style="3" customWidth="1"/>
-    <col min="5" max="5" width="59.285714285714285" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.142857142857146" style="3" customWidth="1"/>
-    <col min="7" max="7" width="53.142857142857146" style="3" customWidth="1"/>
-    <col min="8" max="8" width="70.57142857142857" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="17.285714285714285" style="3"/>
+    <col min="3" max="3" width="48.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="53.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="70.5703125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.05">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.05">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1948,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.05">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -1974,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.05">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -2000,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.05">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -2026,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.05">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -2052,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.05">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -2079,34 +1617,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ab21295d-72e6-445a-a992-d8e7c0b9a7d4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.284285714285716" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.857142857142854" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.142857142857146" style="3" customWidth="1"/>
-    <col min="3" max="3" width="52.42857142857143" style="3" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="51" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.142857142857146" style="3" customWidth="1"/>
-    <col min="6" max="7" width="17.285714285714285" style="3"/>
-    <col min="8" max="9" width="44.285714285714285" style="3" customWidth="1"/>
-    <col min="10" max="10" width="29.285714285714285" style="3" customWidth="1"/>
-    <col min="11" max="11" width="35.857142857142854" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="17.285714285714285" style="3"/>
+    <col min="5" max="5" width="32.140625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="3"/>
+    <col min="8" max="9" width="44.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="35.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.05">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2141,7 +1677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.05">
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
@@ -2174,7 +1710,7 @@
       </c>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="14.05">
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
@@ -2207,7 +1743,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="14.05">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>77</v>
       </c>
@@ -2242,7 +1778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.05">
+    <row r="5" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2254,7 +1790,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="14.05">
+    <row r="6" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2267,42 +1803,44 @@
       <c r="J6" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67efab73-2e34-41dd-8da8-5c3f2cb6d733}">
-  <dimension ref="A1:X12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34" style="13" customWidth="1"/>
-    <col min="2" max="2" width="50" style="13" customWidth="1"/>
-    <col min="3" max="3" width="55.285714285714285" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37" style="13" customWidth="1"/>
-    <col min="5" max="6" width="54.42857142857143" style="13" customWidth="1"/>
-    <col min="7" max="7" width="45.285714285714285" style="13" customWidth="1"/>
-    <col min="8" max="9" width="41" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="41" style="13" customWidth="1"/>
     <col min="10" max="10" width="50" style="13" customWidth="1"/>
-    <col min="11" max="11" width="43.714285714285715" style="13" customWidth="1"/>
-    <col min="12" max="12" width="38.857142857142854" style="13" customWidth="1"/>
-    <col min="13" max="13" width="37.857142857142854" style="13" customWidth="1"/>
+    <col min="11" max="11" width="43.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" style="13" customWidth="1"/>
     <col min="14" max="14" width="34" style="13" customWidth="1"/>
-    <col min="15" max="15" width="22.428571428571427" style="13" customWidth="1"/>
-    <col min="16" max="20" width="37.142857142857146" style="13" customWidth="1"/>
-    <col min="21" max="22" width="26.285714285714285" style="13" customWidth="1"/>
-    <col min="23" max="23" width="42.57142857142857" style="13" customWidth="1"/>
-    <col min="24" max="24" width="30.714285714285715" style="13" customWidth="1"/>
-    <col min="25" max="16384" width="17.142857142857142" style="13"/>
+    <col min="15" max="15" width="22.42578125" style="13" customWidth="1"/>
+    <col min="16" max="20" width="37.140625" style="13" customWidth="1"/>
+    <col min="21" max="22" width="26.28515625" style="13" customWidth="1"/>
+    <col min="23" max="23" width="42.5703125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="13" customWidth="1"/>
+    <col min="25" max="16384" width="17.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.05">
+    <row r="1" spans="1:25" ht="15">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -2328,457 +1866,276 @@
         <v>89</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="X1" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="12.8">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="12" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="X2" s="18"/>
-    </row>
-    <row r="3" spans="1:24" ht="12.8">
+        <v>161</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="12" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>117</v>
-      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
-      <c r="T3" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="T3" s="18"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
       <c r="X3" s="18"/>
     </row>
-    <row r="4" spans="1:24" ht="12.8">
-      <c r="A4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>122</v>
-      </c>
+    <row r="4" spans="1:25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
-      <c r="T4" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="T4" s="18"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
       <c r="X4" s="18"/>
     </row>
-    <row r="5" spans="1:24" ht="12.8">
-      <c r="A5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>39</v>
-      </c>
+    <row r="5" spans="1:25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>125</v>
-      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="T5" s="18"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
       <c r="X5" s="18"/>
     </row>
-    <row r="6" spans="1:24" ht="12.8">
-      <c r="A6" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>39</v>
-      </c>
+    <row r="6" spans="1:25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="N6" s="15"/>
       <c r="O6" s="17"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="T6" s="18"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
       <c r="X6" s="18"/>
     </row>
-    <row r="7" spans="1:24" ht="12.8">
-      <c r="A7" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>39</v>
-      </c>
+    <row r="7" spans="1:25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>130</v>
-      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="T7" s="18"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W7" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="18"/>
     </row>
-    <row r="8" spans="1:24" ht="12.8">
-      <c r="A8" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>111</v>
-      </c>
+    <row r="8" spans="1:25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>136</v>
-      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="12.8">
-      <c r="A9" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>139</v>
-      </c>
+      <c r="T8" s="18"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2796,241 +2153,119 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="T9" s="18"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="18"/>
     </row>
-    <row r="10" spans="1:24" ht="12.8">
-      <c r="A10" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>111</v>
-      </c>
+    <row r="10" spans="1:25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="T10" s="18"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
       <c r="X10" s="18"/>
     </row>
-    <row r="11" spans="1:24" ht="12.8">
-      <c r="A11" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>111</v>
-      </c>
+    <row r="11" spans="1:25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="17"/>
-      <c r="P11" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="15" t="s">
-        <v>145</v>
-      </c>
+      <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="U11" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="V11" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="T11" s="18"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
       <c r="X11" s="18"/>
     </row>
-    <row r="12" spans="1:24" ht="12.8">
-      <c r="A12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>135</v>
-      </c>
+    <row r="12" spans="1:25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
       <c r="X12" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51b3d80e-7f78-4534-8271-b93b2697b78f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.144285714285715" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="31.571428571428573" style="13" customWidth="1"/>
-    <col min="2" max="2" width="53.42857142857143" style="13" customWidth="1"/>
-    <col min="3" max="3" width="46.857142857142854" style="13" customWidth="1"/>
-    <col min="4" max="4" width="41.42857142857143" style="13" customWidth="1"/>
-    <col min="5" max="5" width="49.857142857142854" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48.285714285714285" style="13" customWidth="1"/>
-    <col min="7" max="7" width="34.42857142857143" style="13" customWidth="1"/>
-    <col min="8" max="8" width="42.285714285714285" style="13" customWidth="1"/>
-    <col min="9" max="9" width="41.285714285714285" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="17.142857142857142" style="13"/>
+    <col min="1" max="1" width="31.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.05">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -3038,39 +2273,39 @@
         <v>13</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>65</v>
@@ -3085,80 +2320,80 @@
         <v>80</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="4.291799999999999" bottom="4.291799999999999" header="4.0949" footer="4.0949"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6f4a75b4-1227-472c-8d64-a8ced7e169ba}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A6">
-      <selection pane="topLeft" activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.571428571428573" style="21" customWidth="1"/>
-    <col min="2" max="2" width="82.28571428571429" style="21" customWidth="1"/>
-    <col min="3" max="3" width="62.42857142857143" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.428571428571427" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="21" customWidth="1"/>
     <col min="5" max="7" width="72" style="21" customWidth="1"/>
-    <col min="8" max="8" width="48.285714285714285" style="21" customWidth="1"/>
-    <col min="9" max="9" width="47.857142857142854" style="21" customWidth="1"/>
-    <col min="10" max="10" width="46.142857142857146" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="15.428571428571429" style="29"/>
+    <col min="8" max="8" width="48.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="47.85546875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" style="21" customWidth="1"/>
+    <col min="11" max="16384" width="15.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.05">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="19" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.05">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -3167,18 +2402,18 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:10" ht="14.05">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -3187,18 +2422,18 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="14.05">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -3207,18 +2442,18 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" ht="14.05">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -3227,18 +2462,18 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="14.05">
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -3247,18 +2482,18 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" ht="14.05">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -3267,18 +2502,18 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" ht="14.05">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -3287,21 +2522,21 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" ht="14.05">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -3309,18 +2544,18 @@
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" ht="14.05">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -3329,18 +2564,18 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" ht="14.05">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -3349,18 +2584,18 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" ht="14.05">
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -3369,18 +2604,18 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" ht="14.05">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -3389,18 +2624,18 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:10" ht="14.05">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -3409,18 +2644,18 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:10" ht="14.05">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -3429,18 +2664,18 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" ht="14.05">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -3449,7 +2684,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:10" ht="14.05">
+    <row r="17" spans="1:10" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3461,7 +2696,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" ht="14.05">
+    <row r="18" spans="1:10" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3473,7 +2708,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
     </row>
-    <row r="19" spans="1:10" ht="14.05">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -3485,7 +2720,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" ht="14.05">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -3497,7 +2732,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="1:10" ht="14.05">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -3509,7 +2744,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" ht="14.05">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -3521,7 +2756,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
-    <row r="23" spans="1:10" ht="14.05">
+    <row r="23" spans="1:10" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -3533,7 +2768,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
-    <row r="24" spans="1:10" ht="14.05">
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -3545,7 +2780,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
     </row>
-    <row r="25" spans="1:10" ht="14.05">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -3557,7 +2792,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="1:10" ht="14.05">
+    <row r="26" spans="1:10" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -3569,7 +2804,7 @@
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
     </row>
-    <row r="27" spans="1:10" ht="14.05">
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -3581,7 +2816,7 @@
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="1:10" ht="14.05">
+    <row r="28" spans="1:10" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -3593,7 +2828,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" spans="1:10" ht="14.05">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -3605,7 +2840,7 @@
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
     </row>
-    <row r="30" spans="1:10" ht="14.05">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="25"/>
@@ -3617,7 +2852,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
     </row>
-    <row r="31" spans="1:10" ht="14.05">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="25"/>
@@ -3629,7 +2864,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
     </row>
-    <row r="32" spans="1:10" ht="14.05">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="25"/>
@@ -3641,7 +2876,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="14.05">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="25"/>
@@ -3653,7 +2888,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
     </row>
-    <row r="34" spans="1:10" ht="14.05">
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="25"/>
@@ -3665,7 +2900,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" ht="14.05">
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="25"/>
@@ -3677,7 +2912,7 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
     </row>
-    <row r="36" spans="1:10" ht="14.05">
+    <row r="36" spans="1:10" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="25"/>
@@ -3689,7 +2924,7 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
     </row>
-    <row r="37" spans="1:10" ht="14.05">
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="25"/>
@@ -3701,7 +2936,7 @@
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="1:10" ht="14.05">
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="25"/>
@@ -3713,7 +2948,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
     </row>
-    <row r="39" spans="1:10" ht="14.05">
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3725,7 +2960,7 @@
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
     </row>
-    <row r="40" spans="1:10" ht="14.05">
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -3737,7 +2972,7 @@
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="14.05">
+    <row r="41" spans="1:10" ht="15">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -3749,7 +2984,7 @@
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
     </row>
-    <row r="42" spans="1:10" ht="14.05">
+    <row r="42" spans="1:10" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -3761,7 +2996,7 @@
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
     </row>
-    <row r="43" spans="1:10" ht="14.05">
+    <row r="43" spans="1:10" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3773,7 +3008,7 @@
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
     </row>
-    <row r="44" spans="1:10" ht="14.05">
+    <row r="44" spans="1:10" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="25"/>
@@ -3785,7 +3020,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="1:10" ht="14.05">
+    <row r="45" spans="1:10" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="25"/>
@@ -3797,7 +3032,7 @@
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="1:10" ht="14.05">
+    <row r="46" spans="1:10" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="25"/>
@@ -3809,7 +3044,7 @@
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
     </row>
-    <row r="47" spans="1:10" ht="14.05">
+    <row r="47" spans="1:10" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="25"/>
@@ -3821,7 +3056,7 @@
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
     </row>
-    <row r="48" spans="1:10" ht="14.05">
+    <row r="48" spans="1:10" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="25"/>
@@ -3833,7 +3068,7 @@
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
     </row>
-    <row r="49" spans="1:10" ht="14.05">
+    <row r="49" spans="1:10" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="25"/>
@@ -3845,7 +3080,7 @@
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
     </row>
-    <row r="50" spans="1:10" ht="14.05">
+    <row r="50" spans="1:10" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="25"/>
@@ -3857,7 +3092,7 @@
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
     </row>
-    <row r="51" spans="1:10" ht="14.05">
+    <row r="51" spans="1:10" ht="15">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="25"/>
@@ -3869,7 +3104,7 @@
       <c r="I51" s="28"/>
       <c r="J51" s="28"/>
     </row>
-    <row r="52" spans="1:10" ht="14.05">
+    <row r="52" spans="1:10" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="25"/>
@@ -3881,7 +3116,7 @@
       <c r="I52" s="28"/>
       <c r="J52" s="28"/>
     </row>
-    <row r="53" spans="1:10" ht="14.05">
+    <row r="53" spans="1:10" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3893,7 +3128,7 @@
       <c r="I53" s="28"/>
       <c r="J53" s="28"/>
     </row>
-    <row r="54" spans="1:10" ht="14.05">
+    <row r="54" spans="1:10" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3911,8 +3146,8 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7874" right="0.7874" top="1.0835000000000001" bottom="1.0835000000000001" header="0.9445000000000001" footer="0.9445000000000001"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0835000000000001" bottom="1.0835000000000001" header="0.94450000000000012" footer="0.94450000000000012"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>

--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
   <si>
     <t>Stage</t>
   </si>
@@ -526,6 +526,15 @@
   </si>
   <si>
     <t>400402</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>96145</t>
+  </si>
+  <si>
+    <t>993579</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1822,7 @@
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
@@ -1948,7 +1957,9 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="P2" s="30">
+        <v>10000</v>
+      </c>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="30"/>
@@ -2006,12 +2017,24 @@
     <row r="4" spans="1:25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>

--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="181">
   <si>
     <t>Stage</t>
   </si>
@@ -535,6 +535,36 @@
   </si>
   <si>
     <t>993579</t>
+  </si>
+  <si>
+    <t>TRS_017</t>
+  </si>
+  <si>
+    <t>TRS_017_D1</t>
+  </si>
+  <si>
+    <t>5916</t>
+  </si>
+  <si>
+    <t>993567</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>TRS_018</t>
+  </si>
+  <si>
+    <t>TRS_018_D1</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
 </sst>
 </file>
@@ -1822,7 +1852,7 @@
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
@@ -2053,14 +2083,30 @@
       <c r="X4" s="18"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="A5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -2068,7 +2114,9 @@
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="17"/>
-      <c r="P5" s="15"/>
+      <c r="P5" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -2079,14 +2127,30 @@
       <c r="X5" s="18"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="A6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -2094,7 +2158,9 @@
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="15"/>
+      <c r="P6" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>

--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="197">
   <si>
     <t>Stage</t>
   </si>
@@ -565,6 +565,54 @@
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>TRS_105</t>
+  </si>
+  <si>
+    <t>TRS_105_D1</t>
+  </si>
+  <si>
+    <t>96136</t>
+  </si>
+  <si>
+    <t>993561</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Code Value CifType</t>
+  </si>
+  <si>
+    <t>9613</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>TRS_107</t>
+  </si>
+  <si>
+    <t>TRS_107_D1</t>
+  </si>
+  <si>
+    <t>TRS_106</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>TRS_106_D1</t>
   </si>
 </sst>
 </file>
@@ -755,7 +803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -791,6 +839,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1103,7 +1154,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1849,412 +1900,535 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="41" style="13" customWidth="1"/>
-    <col min="10" max="10" width="50" style="13" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="38.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="34" style="13" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="13" customWidth="1"/>
-    <col min="16" max="20" width="37.140625" style="13" customWidth="1"/>
-    <col min="21" max="22" width="26.28515625" style="13" customWidth="1"/>
-    <col min="23" max="23" width="42.5703125" style="13" customWidth="1"/>
-    <col min="24" max="24" width="30.7109375" style="13" customWidth="1"/>
-    <col min="25" max="16384" width="17.140625" style="13"/>
+    <col min="3" max="6" width="16.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="41" style="13" customWidth="1"/>
+    <col min="14" max="14" width="50" style="13" customWidth="1"/>
+    <col min="15" max="15" width="43.7109375" style="13" customWidth="1"/>
+    <col min="16" max="16" width="38.85546875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="37.85546875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="34" style="13" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="13" customWidth="1"/>
+    <col min="20" max="24" width="37.140625" style="13" customWidth="1"/>
+    <col min="25" max="26" width="26.28515625" style="13" customWidth="1"/>
+    <col min="27" max="27" width="42.5703125" style="13" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" style="13" customWidth="1"/>
+    <col min="29" max="16384" width="17.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
+    <row r="1" spans="1:29" ht="30">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:29">
       <c r="A2" s="12" t="s">
         <v>157</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
-      <c r="P2" s="30">
-        <v>10000</v>
-      </c>
+      <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
+      <c r="T2" s="30">
+        <v>10000</v>
+      </c>
       <c r="U2" s="30"/>
       <c r="V2" s="30"/>
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
       <c r="Y2" s="30"/>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="12" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>160</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="17"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="18"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="18"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="18"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="17"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="18"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
       <c r="X4" s="18"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="18"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="18"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="18"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="18"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="15" t="s">
-        <v>180</v>
-      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="18"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="18"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="18"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="17"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="18"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="18"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="18"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="17"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="18"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="18"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="18"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="17"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="18"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="18"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="18"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -2263,24 +2437,28 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="17"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="18"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="18"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="18"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -2289,24 +2467,28 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="17"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="18"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="18"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="18"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -2315,16 +2497,20 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="18"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="18"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>

--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="199">
   <si>
     <t>Stage</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>TRS_106_D1</t>
+  </si>
+  <si>
+    <t>TRS_104</t>
+  </si>
+  <si>
+    <t>TRS_104_D1</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1909,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
@@ -2339,10 +2345,10 @@
         <v>39</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>80</v>
@@ -2395,10 +2401,10 @@
         <v>39</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>80</v>
@@ -2423,18 +2429,42 @@
       <c r="AB9" s="18"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="A10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
@@ -2442,7 +2472,9 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="15"/>
+      <c r="T10" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>

--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
@@ -16,13 +16,14 @@
     <sheet name="CSM_Transaction" sheetId="7" r:id="rId7"/>
     <sheet name="CSM_ChequeBookrequest" sheetId="8" r:id="rId8"/>
     <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="208">
   <si>
     <t>Stage</t>
   </si>
@@ -619,6 +620,33 @@
   </si>
   <si>
     <t>TRS_104_D1</t>
+  </si>
+  <si>
+    <t>CHB_117</t>
+  </si>
+  <si>
+    <t>CHB_117_D1</t>
+  </si>
+  <si>
+    <t>CHRISAG</t>
+  </si>
+  <si>
+    <t>TRS_161</t>
+  </si>
+  <si>
+    <t>TRS_161_D1</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TRS_157</t>
+  </si>
+  <si>
+    <t>TRS_157_D1</t>
+  </si>
+  <si>
+    <t>Debit Currency Code</t>
   </si>
 </sst>
 </file>
@@ -689,7 +717,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,8 +784,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -795,6 +829,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -809,7 +878,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -845,7 +914,23 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,7 +1245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1238,6 +1323,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1906,38 +2003,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="13" customWidth="1"/>
-    <col min="3" max="6" width="16.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="41" style="13" customWidth="1"/>
-    <col min="14" max="14" width="50" style="13" customWidth="1"/>
-    <col min="15" max="15" width="43.7109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="38.85546875" style="13" customWidth="1"/>
-    <col min="17" max="17" width="37.85546875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="34" style="13" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" style="13" customWidth="1"/>
-    <col min="20" max="24" width="37.140625" style="13" customWidth="1"/>
-    <col min="25" max="26" width="26.28515625" style="13" customWidth="1"/>
-    <col min="27" max="27" width="42.5703125" style="13" customWidth="1"/>
-    <col min="28" max="28" width="30.7109375" style="13" customWidth="1"/>
-    <col min="29" max="16384" width="17.140625" style="13"/>
+    <col min="2" max="2" width="13.5703125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17" style="13" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="20" style="13" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" style="13" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="13" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="13" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" style="13" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="13" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" style="13" customWidth="1"/>
+    <col min="28" max="28" width="18.140625" style="13" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="13" customWidth="1"/>
+    <col min="30" max="16384" width="17.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="30">
+    <row r="1" spans="1:30" ht="30">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -1947,83 +2050,86 @@
       <c r="C1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" s="12" t="s">
         <v>157</v>
       </c>
@@ -2031,40 +2137,40 @@
         <v>158</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="15" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30">
         <v>10000</v>
       </c>
-      <c r="U2" s="30"/>
       <c r="V2" s="30"/>
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
@@ -2073,8 +2179,9 @@
       <c r="AA2" s="30"/>
       <c r="AB2" s="30"/>
       <c r="AC2" s="30"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" s="30"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="12" t="s">
         <v>164</v>
       </c>
@@ -2082,89 +2189,101 @@
         <v>165</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="15"/>
+      <c r="N3" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="17"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="18"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="18"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="18"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="15"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="17"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="18"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="18"/>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="18"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="12" t="s">
         <v>171</v>
       </c>
@@ -2172,47 +2291,48 @@
         <v>172</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="15" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="15" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="18"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="18"/>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="18"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="12" t="s">
         <v>177</v>
       </c>
@@ -2220,47 +2340,48 @@
         <v>178</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="15" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="18"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="18"/>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="18"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="12" t="s">
         <v>182</v>
       </c>
@@ -2270,53 +2391,54 @@
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="15" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="18"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="18"/>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="12" t="s">
         <v>194</v>
       </c>
@@ -2326,53 +2448,54 @@
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="15" t="s">
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="18"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="18"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="12" t="s">
         <v>192</v>
       </c>
@@ -2382,53 +2505,54 @@
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="15" t="s">
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="18"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="18"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="18"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="12" t="s">
         <v>197</v>
       </c>
@@ -2438,111 +2562,800 @@
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="15" t="s">
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="U10" s="15"/>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="18"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="18"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="18"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="18"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="18"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="33">
+        <v>321</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1054</v>
+      </c>
+      <c r="F11" s="33">
+        <v>50</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43">
+        <v>685</v>
+      </c>
+      <c r="H12" s="43">
+        <v>1</v>
+      </c>
+      <c r="I12" s="43">
+        <v>840</v>
+      </c>
+      <c r="J12" s="43">
+        <v>96136</v>
+      </c>
+      <c r="K12" s="43">
+        <v>993563</v>
+      </c>
+      <c r="L12" s="43">
+        <v>0</v>
+      </c>
+      <c r="M12" s="43">
+        <v>2</v>
+      </c>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43">
+        <v>96138</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>993563</v>
+      </c>
+      <c r="R12" s="43">
+        <v>0</v>
+      </c>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43">
+        <v>100</v>
+      </c>
+      <c r="V12" s="43"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="34"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="43">
+        <v>685</v>
+      </c>
+      <c r="H13" s="43">
+        <v>1</v>
+      </c>
+      <c r="I13" s="43">
+        <v>840</v>
+      </c>
+      <c r="J13" s="43">
+        <v>96136</v>
+      </c>
+      <c r="K13" s="43">
+        <v>993563</v>
+      </c>
+      <c r="L13" s="43">
+        <v>0</v>
+      </c>
+      <c r="M13" s="43">
+        <v>2</v>
+      </c>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43">
+        <v>96138</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>993563</v>
+      </c>
+      <c r="R13" s="43">
+        <v>0</v>
+      </c>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43">
+        <v>100</v>
+      </c>
+      <c r="V13" s="41"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>

--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="211">
   <si>
     <t>Stage</t>
   </si>
@@ -316,30 +316,6 @@
     <t>Amend Amount</t>
   </si>
   <si>
-    <t>Suspend Reason</t>
-  </si>
-  <si>
-    <t>Close Reason</t>
-  </si>
-  <si>
-    <t>Cancel Reason</t>
-  </si>
-  <si>
-    <t>Waived Charge Amount</t>
-  </si>
-  <si>
-    <t>Ending Date</t>
-  </si>
-  <si>
-    <t>Less Exemption Date</t>
-  </si>
-  <si>
-    <t>High Exemption Date</t>
-  </si>
-  <si>
-    <t>Update DataSetID</t>
-  </si>
-  <si>
     <t>DS01_TC_CW_001</t>
   </si>
   <si>
@@ -647,6 +623,39 @@
   </si>
   <si>
     <t>Debit Currency Code</t>
+  </si>
+  <si>
+    <t>AD branchcode</t>
+  </si>
+  <si>
+    <t>AD gl Code</t>
+  </si>
+  <si>
+    <t>AD cif Code</t>
+  </si>
+  <si>
+    <t>AD serial No</t>
+  </si>
+  <si>
+    <t>AD Amount</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>AD branchcode_2</t>
+  </si>
+  <si>
+    <t>AD glcode_2</t>
+  </si>
+  <si>
+    <t>AD cifcode_2</t>
+  </si>
+  <si>
+    <t>AD serialNo_2</t>
+  </si>
+  <si>
+    <t>AD amount_2</t>
   </si>
 </sst>
 </file>
@@ -717,7 +726,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,8 +799,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -864,6 +885,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -878,7 +925,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -895,7 +942,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,21 +964,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1245,7 +1309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2003,17 +2067,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="29" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="28" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="13" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="13" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="13" customWidth="1"/>
@@ -2022,7 +2088,7 @@
     <col min="12" max="12" width="17" style="13" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="13" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="28" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" style="13" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" style="13" customWidth="1"/>
     <col min="18" max="18" width="20" style="13" customWidth="1"/>
@@ -2036,1326 +2102,1415 @@
     <col min="26" max="26" width="12.140625" style="13" customWidth="1"/>
     <col min="27" max="27" width="19.28515625" style="13" customWidth="1"/>
     <col min="28" max="28" width="18.140625" style="13" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" style="13" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="13" customWidth="1"/>
     <col min="30" max="16384" width="17.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:31" s="45" customFormat="1" ht="30">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="N1" s="45" t="s">
+      <c r="M1" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA1" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB1" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AC1" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD1" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE1" s="46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29">
+        <v>10000</v>
+      </c>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="50"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
+      <c r="H3" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="K3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" s="38" t="s">
+      <c r="P3" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30">
-        <v>10000</v>
-      </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="38"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="15"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
-      <c r="Y3" s="18"/>
+      <c r="Y3" s="17"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
-      <c r="AC3" s="18"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="H4" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="38" t="s">
+      <c r="J4" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="17"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="16"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
-      <c r="Y4" s="18"/>
+      <c r="Y4" s="17"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
-      <c r="AC4" s="18"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC5" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD5" s="50">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="H6" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="18"/>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="18"/>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="18"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="17"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="18"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="18"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="17"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="16"/>
       <c r="U8" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="18"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="18"/>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="38" t="s">
+      <c r="K9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="17"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="16"/>
       <c r="U9" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="18"/>
+      <c r="Y9" s="17"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="18"/>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="38" t="s">
+      <c r="K10" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="17"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="18"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
-      <c r="AC10" s="18"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="32">
         <v>321</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>1054</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>50</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37">
         <v>685</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="37">
         <v>1</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="37">
         <v>840</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="37">
         <v>96136</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="37">
+        <v>993561</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
+        <v>2</v>
+      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37">
+        <v>96138</v>
+      </c>
+      <c r="Q12" s="37">
         <v>993563</v>
       </c>
-      <c r="L12" s="43">
+      <c r="R12" s="37">
         <v>0</v>
       </c>
-      <c r="M12" s="43">
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37">
+        <v>100</v>
+      </c>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37">
+        <v>685</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1</v>
+      </c>
+      <c r="I13" s="37">
+        <v>840</v>
+      </c>
+      <c r="J13" s="37">
+        <v>96136</v>
+      </c>
+      <c r="K13" s="37">
+        <v>993561</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
         <v>2</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43">
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37">
         <v>96138</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q13" s="37">
         <v>993563</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R13" s="37">
         <v>0</v>
       </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43">
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37">
         <v>100</v>
       </c>
-      <c r="V12" s="43"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="34"/>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="43">
-        <v>685</v>
-      </c>
-      <c r="H13" s="43">
-        <v>1</v>
-      </c>
-      <c r="I13" s="43">
-        <v>840</v>
-      </c>
-      <c r="J13" s="43">
-        <v>96136</v>
-      </c>
-      <c r="K13" s="43">
-        <v>993563</v>
-      </c>
-      <c r="L13" s="43">
-        <v>0</v>
-      </c>
-      <c r="M13" s="43">
-        <v>2</v>
-      </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43">
-        <v>96138</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>993563</v>
-      </c>
-      <c r="R13" s="43">
-        <v>0</v>
-      </c>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43">
-        <v>100</v>
-      </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-    </row>
-    <row r="31" spans="1:29">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="50"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="50"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="50"/>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="50"/>
+      <c r="AE29" s="50"/>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="4.2917999999999994" bottom="4.2917999999999994" header="4.0949" footer="4.0949"/>
@@ -3393,39 +3548,39 @@
         <v>13</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>65</v>
@@ -3440,7 +3595,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3459,806 +3614,806 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="21" customWidth="1"/>
-    <col min="5" max="7" width="72" style="21" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="47.85546875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="46.140625" style="21" customWidth="1"/>
-    <col min="11" max="16384" width="15.42578125" style="29"/>
+    <col min="1" max="1" width="16.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="20" customWidth="1"/>
+    <col min="5" max="7" width="72" style="20" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="47.85546875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="15.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="C2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="C3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="C4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="C5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="C6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="C7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="C8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C9" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="D11" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="D12" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="D13" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="D14" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="20">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="D15" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="20">
-        <v>11</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="C16" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="D16" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" ht="15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" ht="15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" ht="15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10" ht="15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" ht="15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" ht="15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" ht="15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" ht="15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" ht="15">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" ht="15">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
     </row>
     <row r="53" spans="1:10" ht="15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10" ht="15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/CSM_Akthar/TestData/CSMTestData.xlsx
+++ b/CSM_Akthar/TestData/CSMTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="6"/>
@@ -18,12 +18,12 @@
     <sheet name="ChargeWaiverExecutionTracker" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="209">
   <si>
     <t>Stage</t>
   </si>
@@ -538,9 +538,6 @@
     <t>TRS_018_D1</t>
   </si>
   <si>
-    <t>377</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -611,9 +608,6 @@
   </si>
   <si>
     <t>TRS_161_D1</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>TRS_157</t>
@@ -1309,7 +1303,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2070,7 +2064,7 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75"/>
@@ -2114,16 +2108,16 @@
         <v>13</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>181</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>182</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>84</v>
@@ -2150,7 +2144,7 @@
         <v>90</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P1" s="42" t="s">
         <v>91</v>
@@ -2171,34 +2165,34 @@
         <v>96</v>
       </c>
       <c r="V1" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="Y1" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="Z1" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z1" s="44" t="s">
+      <c r="AA1" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AB1" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AD1" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AE1" s="46" t="s">
         <v>208</v>
-      </c>
-      <c r="AD1" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE1" s="46" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -2406,16 +2400,16 @@
         <v>152</v>
       </c>
       <c r="W5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="Y5" s="17" t="s">
         <v>80</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>152</v>
@@ -2445,7 +2439,7 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="34" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H6" s="34" t="s">
         <v>152</v>
@@ -2454,24 +2448,30 @@
         <v>39</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K6" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>80</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>152</v>
       </c>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
+      <c r="P6" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="S6" s="34"/>
       <c r="T6" s="16"/>
       <c r="U6" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
@@ -2486,16 +2486,16 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>68</v>
@@ -2504,7 +2504,7 @@
         <v>168</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>152</v>
@@ -2513,10 +2513,10 @@
         <v>39</v>
       </c>
       <c r="J7" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="L7" s="34" t="s">
         <v>80</v>
@@ -2530,7 +2530,7 @@
       <c r="S7" s="34"/>
       <c r="T7" s="16"/>
       <c r="U7" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
@@ -2545,16 +2545,16 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>68</v>
@@ -2572,10 +2572,10 @@
         <v>39</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>80</v>
@@ -2589,7 +2589,7 @@
       <c r="S8" s="34"/>
       <c r="T8" s="16"/>
       <c r="U8" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>68</v>
@@ -2631,10 +2631,10 @@
         <v>39</v>
       </c>
       <c r="J9" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>80</v>
@@ -2648,7 +2648,7 @@
       <c r="S9" s="34"/>
       <c r="T9" s="16"/>
       <c r="U9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
@@ -2663,16 +2663,16 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>68</v>
@@ -2681,7 +2681,7 @@
         <v>168</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>152</v>
@@ -2690,10 +2690,10 @@
         <v>39</v>
       </c>
       <c r="J10" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>176</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="L10" s="34" t="s">
         <v>80</v>
@@ -2707,7 +2707,7 @@
       <c r="S10" s="34"/>
       <c r="T10" s="16"/>
       <c r="U10" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C11" s="31" t="s">
         <v>192</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>193</v>
       </c>
       <c r="D11" s="32">
         <v>321</v>
@@ -2767,13 +2767,13 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>196</v>
+      <c r="C12" s="31">
+        <v>2</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="36"/>
